--- a/src/Plan.xlsx
+++ b/src/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished second requirement </t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished third requirement </t>
+  </si>
+  <si>
+    <t>60m</t>
   </si>
 </sst>
 </file>
@@ -68,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,6 +94,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,16 +147,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,117 +230,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -235,25 +247,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,13 +373,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,139 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,11 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,32 +471,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,8 +500,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,11 +517,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,157 +543,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1034,13 +1052,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="32.25" customWidth="1"/>
@@ -1103,7 +1121,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1114,7 +1132,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -1123,8 +1141,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="30" spans="1:3">
+      <c r="A9" s="3">
+        <v>44542</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>44542</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Plan.xlsx
+++ b/src/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525"/>
+    <workbookView windowWidth="16875" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,22 +111,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,52 +140,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,16 +216,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,22 +233,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,181 +253,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,16 +441,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -467,17 +467,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,8 +488,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -510,7 +501,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,17 +515,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,139 +543,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,9 +700,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,7 +1052,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1156,7 +1153,7 @@
       <c r="A9" s="3">
         <v>44542</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
@@ -1167,7 +1164,7 @@
       <c r="A10" s="3">
         <v>44542</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
